--- a/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
@@ -451,155 +451,205 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>630008</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>华商策略精选混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>79.72</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.12</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009932</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>永赢稳健增长一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>24.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005933</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>80.27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.01</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005934</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004206</t>
+          <t>630002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商元亨灵活配置混合</t>
+          <t>华商盛世成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004988</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>人保双利优选混合A</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.13</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004989</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>人保双利优选混合C</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.13</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>160105</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>南方积极配置混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005933</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -790,25 +900,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005934</t>
+          <t>002331</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
+          <t>泰康安泰回报混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005793</t>
+          <t>001798</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华富可转债债券</t>
+          <t>泰康新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>004206</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>华商元亨灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.72</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000554</t>
+          <t>673030</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方中国梦灵活配置混合</t>
+          <t>西部利得多策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>52.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010427</t>
+          <t>005933</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>兴银策略智选混合A</t>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010428</t>
+          <t>000554</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>兴银策略智选混合C</t>
+          <t>南方中国梦灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001798</t>
+          <t>003299</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰康新回报灵活配置混合A</t>
+          <t>嘉实物流产业股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001799</t>
+          <t>010427</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泰康新回报灵活配置混合C</t>
+          <t>兴银策略智选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160105</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方积极配置混合(LOF)</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>010428</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>兴银策略智选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>001799</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>泰康新回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>76.31</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>673030</t>
+          <t>005934</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>西部利得多策略优选灵活配置混合</t>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52.25</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002331</t>
+          <t>004988</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泰康安泰回报混合</t>
+          <t>人保双利优选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>003298</t>
+          <t>005793</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票A</t>
+          <t>华富可转债债券</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1182,26 +1432,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003299</t>
+          <t>004989</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>84.09</t>
-        </is>
-      </c>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1440,7 +1441,6 @@
           <t>人保双利优选混合C</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>23.13</t>
@@ -1456,6 +1456,594 @@
       </c>
       <c r="H21" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9380</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>673030</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得多策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富可转债债券</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2049,4 +2050,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9384</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3704</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2642</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1928</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0963</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7307</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6952</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5750</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4701</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>52.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2942,4 +2943,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2951,7 +2952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2962,17 +2963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2982,14 +3003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.72</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7511</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2998,14 +3041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.43</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2167</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3014,14 +3079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.49</v>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3030,13 +3117,1403 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2910</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2799</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0692</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9432</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8597</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8201</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7836</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5663</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5178</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>57.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4412,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4423,17 +4424,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4443,14 +4464,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.08</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4459,14 +4502,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.72</v>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4475,14 +4540,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.43</v>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8905</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4491,14 +4578,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.49</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8389</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4507,13 +4616,1647 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8216</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2351</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2338</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0665</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0480</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0479</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9711</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6950</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5679</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5448</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5296</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4586</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4465</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>53.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6139,7 +6140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6150,17 +6151,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6170,14 +6191,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.22</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3062</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6186,14 +6229,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.08</v>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6202,14 +6267,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.72</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6218,14 +6305,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.43</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7324</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6234,14 +6343,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.49</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4541</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -6250,13 +6381,2801 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2946</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0326</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6906</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5876</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2661</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2291</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9769</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9737</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9639</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9509</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9338</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9173</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7862</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6253</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>27.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5525</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5415</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4438</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4073</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3208</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>53.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>40.03</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>56.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015154</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>41.13</v>
+        <v>36.11</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>27.22</v>
+        <v>41.13</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>26.08</v>
+        <v>27.22</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>14.72</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>2.43</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.49</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -600,6 +617,3216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4079</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0399</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6687</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5351</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4774</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3991</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2467</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1930</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1494</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0546</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8805</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7708</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7127</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6143</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4342</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3887</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2783</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>52.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013078</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>62.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015154</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>52.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013079</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016290</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>32.68</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3501,7 +6728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5227,7 +8454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6687,7 +9914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7579,7 +10806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8167,7 +11394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8976,7 +12203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600029-南方航空.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>36.11</v>
+        <v>39.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D3" t="n">
-        <v>41.13</v>
+        <v>36.11</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>27.22</v>
+        <v>41.13</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>26.08</v>
+        <v>27.22</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>14.72</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>2.43</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.49</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,238 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -673,32 +898,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010379</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发均衡优选混合A</t>
+          <t>广发睿毅领先混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.19</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.93</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4079</t>
+          <t>3.5789</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -711,36 +936,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合A</t>
+          <t>广发价值领先混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.36</t>
+          <t>67.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.0160</t>
+          <t>2.7829</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +974,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>519772</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发价值领先混合A</t>
+          <t>交银新生活力灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>58.59</t>
+          <t>50.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>85.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.8006</t>
+          <t>2.7584</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1012,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519002</t>
+          <t>010379</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安安信消费混合A</t>
+          <t>广发均衡优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>67.62</t>
+          <t>48.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.32</t>
+          <t>64.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.2247</t>
+          <t>2.6244</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -835,12 +1060,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26.77</t>
+          <t>27.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -850,7 +1075,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.0399</t>
+          <t>2.0963</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -873,26 +1098,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.52</t>
+          <t>25.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.50</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.6687</t>
+          <t>1.9088</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -901,32 +1126,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>169101</t>
+          <t>012449</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方红睿丰灵活配置混合（LOF）</t>
+          <t>广发睿毅领先混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30.58</t>
+          <t>24.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.5351</t>
+          <t>1.7219</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -949,22 +1174,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>75.03</t>
+          <t>75.13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.4774</t>
+          <t>1.5880</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -977,36 +1202,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012449</t>
+          <t>519002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合C</t>
+          <t>华安安信消费混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19.65</t>
+          <t>62.23</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>83.24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.3991</t>
+          <t>1.5371</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1240,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001694</t>
+          <t>010336</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安沪港深外延增长混合A</t>
+          <t>中欧悦享生活混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>38.96</t>
+          <t>34.93</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>87.84</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.2467</t>
+          <t>1.2924</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1063,26 +1288,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20.05</t>
+          <t>19.41</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>99.41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.1930</t>
+          <t>1.1801</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1101,26 +1326,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17.82</t>
+          <t>17.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>64.97</t>
+          <t>64.90</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.1494</t>
+          <t>0.9764</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +1354,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010336</t>
+          <t>010115</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合A</t>
+          <t>易方达远见成长混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>36.49</t>
+          <t>28.67</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>78.28</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.0546</t>
+          <t>0.8458</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1167,32 +1392,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006879</t>
+          <t>011194</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华安智能生活混合A</t>
+          <t>广发睿铭两年持有期混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27.26</t>
+          <t>13.63</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>74.96</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.8805</t>
+          <t>0.8355</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1205,36 +1430,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>270022</t>
+          <t>010417</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发内需增长混合A</t>
+          <t>招商盛洋3个月定期开放混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13.50</t>
+          <t>25.72</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>79.98</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.7708</t>
+          <t>0.7922</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1243,36 +1468,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009888</t>
+          <t>001437</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合C</t>
+          <t>易方达瑞享灵活配置混合I</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>10.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>64.97</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.7127</t>
+          <t>0.7424</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1281,36 +1506,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>001438</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合A</t>
+          <t>易方达瑞享灵活配置混合E</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>21.30</t>
+          <t>10.56</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>79.44</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.7008</t>
+          <t>0.7424</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1319,36 +1544,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011128</t>
+          <t>009888</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华安精致生活混合A</t>
+          <t>广发稳健优选六个月持有期混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>82.04</t>
+          <t>64.90</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.6143</t>
+          <t>0.6021</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1357,36 +1582,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010385</t>
+          <t>011128</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华安汇嘉精选混合A</t>
+          <t>华安精致生活混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19.69</t>
+          <t>27.22</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>86.06</t>
+          <t>87.35</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.4371</t>
+          <t>0.5798</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +1620,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011134</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广发价值优选混合A</t>
+          <t>华安国企改革主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>15.25</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>85.79</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.4342</t>
+          <t>0.5597</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1433,36 +1658,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003298</t>
+          <t>011412</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票A</t>
+          <t>易方达远见成长混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>18.27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.51</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.3887</t>
+          <t>0.5390</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1471,36 +1696,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>013686</t>
+          <t>163822</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华安安信消费混合C</t>
+          <t>中银主题策略混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>17.43</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>86.32</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.3734</t>
+          <t>0.5264</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1509,36 +1734,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>161611</t>
+          <t>012420</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>融通内需驱动混合A/B</t>
+          <t>广发价值领先混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.3680</t>
+          <t>0.4935</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1547,36 +1772,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>012420</t>
+          <t>011195</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发价值领先混合C</t>
+          <t>广发睿铭两年持有期混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>74.96</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.3609</t>
+          <t>0.4922</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1585,36 +1810,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>012528</t>
+          <t>163804</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广发鑫睿一年持有期混合A</t>
+          <t>中银收益混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>15.84</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.3536</t>
+          <t>0.4768</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1623,36 +1848,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>013607</t>
+          <t>011134</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>广发睿恒进取一年持有期混合A</t>
+          <t>广发价值优选混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.3482</t>
+          <t>0.4255</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1661,32 +1886,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010072</t>
+          <t>014734</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>方正富邦策略精选混合A</t>
+          <t>广发睿合混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>80.77</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.3228</t>
+          <t>0.4111</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1699,36 +1924,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001437</t>
+          <t>003299</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合I</t>
+          <t>嘉实物流产业股票C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>92.06</t>
+          <t>85.10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.3002</t>
+          <t>0.3527</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1737,36 +1962,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001438</t>
+          <t>013607</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合E</t>
+          <t>广发睿恒进取一年持有期混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>92.06</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.3002</t>
+          <t>0.3512</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1775,36 +2000,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>012913</t>
+          <t>562510</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>方正富邦趋势领航混合A</t>
+          <t>华夏中证旅游主题ETF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>77.14</t>
+          <t>99.59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.2932</t>
+          <t>0.3374</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1813,36 +2038,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>003299</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票C</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>83.51</t>
+          <t>85.10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.2783</t>
+          <t>0.2991</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1861,22 +2086,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12.94</t>
+          <t>13.13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>82.04</t>
+          <t>87.35</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.2704</t>
+          <t>0.2797</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1889,36 +2114,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>562510</t>
+          <t>012913</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华夏中证旅游主题ETF</t>
+          <t>方正富邦趋势领航混合A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>99.70</t>
+          <t>75.99</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.2617</t>
+          <t>0.2782</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1927,36 +2152,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>002270</t>
+          <t>011891</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东吴安盈量化灵活配置混合A</t>
+          <t>易方达先锋成长混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>52.91</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.2395</t>
+          <t>0.2766</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1965,36 +2190,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>012529</t>
+          <t>013686</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>广发鑫睿一年持有期混合C</t>
+          <t>华安安信消费混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>83.24</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.2308</t>
+          <t>0.2579</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2003,36 +2228,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>013621</t>
+          <t>002095</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华安智能生活混合C</t>
+          <t>博时新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>88.69</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.2209</t>
+          <t>0.2445</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -2041,36 +2266,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>010380</t>
+          <t>002270</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>广发均衡优选混合C</t>
+          <t>东吴安盈量化灵活配置混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>64.93</t>
+          <t>81.49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.2180</t>
+          <t>0.2238</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -2079,32 +2304,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>501070</t>
+          <t>002096</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>广发睿阳三年定期开放混合</t>
+          <t>博时新收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>51.01</t>
+          <t>88.69</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.2125</t>
+          <t>0.2076</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2117,36 +2342,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>011891</t>
+          <t>010072</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>易方达先锋成长混合A</t>
+          <t>方正富邦策略精选混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>69.84</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.2015</t>
+          <t>0.2065</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2155,22 +2380,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>012093</t>
+          <t>014505</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鹏华创新升级混合A</t>
+          <t>中银收益混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>64.25</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2180,11 +2405,11 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.1752</t>
+          <t>0.2023</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -2193,36 +2418,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>014109</t>
+          <t>014735</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>融通内需驱动混合C</t>
+          <t>广发睿合混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.1713</t>
+          <t>0.1924</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -2231,36 +2456,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>010532</t>
+          <t>519767</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>广发恒信一年持有期混合A</t>
+          <t>交银施罗德科技创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>20.09</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.1638</t>
+          <t>0.1791</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2269,32 +2494,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>013078</t>
+          <t>010380</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>方正富邦策略轮动混合A</t>
+          <t>广发均衡优选混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>76.64</t>
+          <t>64.94</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.1562</t>
+          <t>0.1730</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2307,36 +2532,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>011501</t>
+          <t>011892</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+          <t>易方达先锋成长混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>55.32</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.1303</t>
+          <t>0.1711</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2345,36 +2570,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>011135</t>
+          <t>015386</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>广发价值优选混合C</t>
+          <t>中银主题策略混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.1292</t>
+          <t>0.1468</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2383,36 +2608,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>010386</t>
+          <t>013078</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华安汇嘉精选混合C</t>
+          <t>方正富邦策略轮动混合A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>86.06</t>
+          <t>78.12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0977</t>
+          <t>0.1424</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2421,36 +2646,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>004206</t>
+          <t>011501</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华商元亨灵活配置混合</t>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>29.75</t>
+          <t>64.22</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0809</t>
+          <t>0.1347</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2459,36 +2684,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>002252</t>
+          <t>011135</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>融通成长30灵活配置混合A/B</t>
+          <t>广发价值优选混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0683</t>
+          <t>0.1282</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2497,36 +2722,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>011183</t>
+          <t>014158</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>广发内需增长混合C</t>
+          <t>博时浦惠一年持有期混合A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>79.98</t>
+          <t>49.14</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0634</t>
+          <t>0.1041</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2535,36 +2760,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>013712</t>
+          <t>006693</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>方正富邦鑫益一年定期开放混合A</t>
+          <t>金信消费升级股票C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>32.96</t>
+          <t>87.56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0612</t>
+          <t>0.0891</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2573,36 +2798,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>011892</t>
+          <t>004206</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>易方达先锋成长混合C</t>
+          <t>华商元亨灵活配置混合</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>29.88</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0609</t>
+          <t>0.0890</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -2611,36 +2836,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>014106</t>
+          <t>001749</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>融通成长30灵活配置混合C</t>
+          <t>招商中国机遇股票</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.0587</t>
+          <t>0.0879</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -2649,36 +2874,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>007509</t>
+          <t>010965</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华商润丰灵活配置混合C</t>
+          <t>中银鑫新消费成长混合A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>40.93</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0463</t>
+          <t>0.0859</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2687,32 +2912,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>012914</t>
+          <t>006385</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>方正富邦趋势领航混合C</t>
+          <t>华泰保兴研究智选灵活配置混合A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>77.14</t>
+          <t>88.65</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0427</t>
+          <t>0.0815</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2725,36 +2950,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>010533</t>
+          <t>013712</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>广发恒信一年持有期混合C</t>
+          <t>方正富邦鑫益一年定期开放混合A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>20.09</t>
+          <t>52.63</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.0345</t>
+          <t>0.0761</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2763,36 +2988,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>006692</t>
+          <t>000398</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金信消费升级股票A</t>
+          <t>华富灵活配置混合</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.0289</t>
+          <t>0.0753</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -2801,36 +3026,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>006692</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>金信消费升级股票A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>78.28</t>
+          <t>87.56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0689</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2839,36 +3064,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>008135</t>
+          <t>007509</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华宸未来价值先锋混合</t>
+          <t>华商润丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>40.83</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.0265</t>
+          <t>0.0666</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -2877,36 +3102,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>010637</t>
+          <t>010073</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>财通安盈混合C</t>
+          <t>方正富邦策略精选混合C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>48.00</t>
+          <t>69.84</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.0257</t>
+          <t>0.0594</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2915,36 +3140,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>013608</t>
+          <t>012914</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>广发睿恒进取一年持有期混合C</t>
+          <t>方正富邦趋势领航混合C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>75.99</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.0235</t>
+          <t>0.0409</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -2953,36 +3178,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>010636</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>财通安盈混合A</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>48.00</t>
+          <t>87.84</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0348</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -2991,36 +3216,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>005492</t>
+          <t>160421</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>农银汇理研究驱动灵活配置混合</t>
+          <t>华安智增精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>62.55</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0344</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -3029,36 +3254,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>006693</t>
+          <t>013608</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金信消费升级股票C</t>
+          <t>广发睿恒进取一年持有期混合C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -3067,36 +3292,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>010073</t>
+          <t>002862</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>方正富邦策略精选混合C</t>
+          <t>金信量化精选灵活配置混合</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>80.77</t>
+          <t>80.41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0237</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3105,36 +3330,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>015154</t>
+          <t>010962</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东吴安盈量化灵活配置混合C</t>
+          <t>中银鑫新消费成长混合C</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>52.91</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3143,36 +3368,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>013079</t>
+          <t>005170</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>方正富邦策略轮动混合C</t>
+          <t>华泰保兴策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>76.64</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.0100</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -3181,36 +3406,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>001448</t>
+          <t>015394</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华商双翼平衡混合</t>
+          <t>交银施罗德科技创新灵活配置混合C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>39.66</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -3219,36 +3444,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>001830</t>
+          <t>013079</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>融通跨界成长灵活配置混合</t>
+          <t>方正富邦策略轮动混合C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>78.12</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -3257,36 +3482,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>016290</t>
+          <t>014159</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合C</t>
+          <t>博时浦惠一年持有期混合C</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>79.44</t>
+          <t>49.14</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -3295,36 +3520,36 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>005067</t>
+          <t>001448</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>融通逆向策略灵活配置混合A</t>
+          <t>华商双翼平衡混合</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>87.31</t>
+          <t>40.13</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -3333,36 +3558,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>012094</t>
+          <t>002415</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鹏华创新升级混合C</t>
+          <t>融通通盈灵活配置混合</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>64.25</t>
+          <t>81.71</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3371,36 +3596,36 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>009270</t>
+          <t>005169</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>融通逆向策略灵活配置混合C</t>
+          <t>华泰保兴策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>87.31</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
@@ -3409,36 +3634,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>004988</t>
+          <t>016290</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>人保双利优选混合A</t>
+          <t>华安国企改革主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>25.48</t>
+          <t>85.79</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -3447,36 +3672,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>000972</t>
+          <t>009200</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>新华万银多元策略灵活配置混合</t>
+          <t>华安金享混合</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>32.68</t>
+          <t>81.82</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -3485,36 +3710,36 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>011502</t>
+          <t>002020</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+          <t>国都创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>55.32</t>
+          <t>83.47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -3523,12 +3748,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>014972</t>
+          <t>011502</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华安沪港深外延增长混合C</t>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3538,21 +3763,21 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>64.22</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -3576,17 +3801,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>32.96</t>
+          <t>52.63</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3599,36 +3824,36 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>004402</t>
+          <t>006689</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金信民旺债券C</t>
+          <t>方正富邦信泓灵活配置混合A</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>23.60</t>
+          <t>82.35</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -3637,36 +3862,36 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>011987</t>
+          <t>003598</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>财通资管智选核心回报6个月持有期混合A</t>
+          <t>华商润丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>39.46</t>
+          <t>40.83</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -3675,36 +3900,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>004222</t>
+          <t>960012</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金信民旺债券A</t>
+          <t>中银收益混合H</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>23.60</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -3713,36 +3938,36 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>003598</t>
+          <t>006386</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>华商润丰灵活配置混合A</t>
+          <t>华泰保兴研究智选灵活配置混合C</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>40.93</t>
+          <t>88.65</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -3751,36 +3976,34 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>004989</t>
+          <t>015154</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>人保双利优选混合C</t>
+          <t>东吴安盈量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>25.48</t>
+          <t>81.49</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -3789,36 +4012,34 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>011988</t>
+          <t>008182</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>财通资管智选核心回报6个月持有期混合C</t>
+          <t>方正富邦信泓灵活配置混合C</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>39.46</t>
+          <t>82.35</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3827,6 +4048,3216 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4079</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0399</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6687</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5351</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4774</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3991</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2467</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1930</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1494</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0546</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8805</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7708</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7127</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6143</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4342</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3887</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2783</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>52.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013078</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>62.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015154</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>52.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013079</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016290</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>32.68</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6728,7 +10159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8454,7 +11885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9914,7 +13345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10806,7 +14237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11394,7 +14825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12201,212 +15632,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009932</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>永赢稳健增长一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>24.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2819</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2583</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005933</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0537</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005934</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>